--- a/Task_3/processed/excels/Mar 2019-18-21 (1).xlsx
+++ b/Task_3/processed/excels/Mar 2019-18-21 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E6E46-D2CB-4E20-9078-146AA8D3CEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558FEE74-15AC-4585-97DF-BFE2255799E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,6 +1511,36 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1521,6 +1551,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,60 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3608,36 +3608,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="18" t="s">
         <v>86</v>
       </c>
@@ -3646,14 +3646,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
@@ -3708,24 +3708,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -3900,36 +3900,36 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="57" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3938,24 +3938,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
@@ -4098,14 +4098,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
@@ -4184,14 +4184,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
@@ -4270,12 +4270,12 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
@@ -4316,20 +4316,20 @@
     <row r="44" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
@@ -4410,16 +4410,16 @@
     <row r="50" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
@@ -4444,10 +4444,10 @@
       <c r="B53" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="50">
         <v>103671.25</v>
       </c>
-      <c r="D53" s="71"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="26">
         <v>42689.39</v>
       </c>
@@ -4457,6 +4457,28 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
@@ -4466,28 +4488,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
